--- a/DOM_Banner/output/dept0713/C Kent Kwoh_2022.xlsx
+++ b/DOM_Banner/output/dept0713/C Kent Kwoh_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Rheumatology, Royal North Shore Hospital and Institute of Bone and Joint Research, Kolling Institute, University of Sydney, Sydney, Australia.; Harvard Medical School, Boston, MA, USA; Orthopaedic and Arthritis Center for Outcomes Research, Department of Orthopedic Surgery, Brigham and Women’s Hospital, Boston, MA, USA; Harvard Medical School, Boston, MA, USA; Orthopaedic and Arthritis Center for Outcomes Research, Department of Orthopedic Surgery, Brigham and Women’s Hospital, Boston, MA, USA; UNIVERSITY OF CALIFORNIA, SAN FRANCISCO SAN FRANCISCO CA United States; Department of Radiology, University of Erlangen–Nuremberg, Erlangen, Germany; Quantitative Imaging Center, Department of Radiology, Boston University School of Medicine, Boston, MA, USA; Quantitative Imaging Center, Department of Radiology Boston University School of Medicine Boston MA USA; Imorphics Ltd, a wholly-owned subsidiary of Stryker Corp, Manchester, UK.; Department of Computer Science University of Copenhagen  Denmark; Ludwig Boltzmann Institute for Arthritis and Rehabilitation, Paracelsus Medical University, Salzburg, Austria.; Department of Epidemiology &amp; Biostatistics, University of California at San Francisco, San Francisco, CA, USA; Harvard Medical School, Boston, MA, USA; Orthopaedic and Arthritis Center for Outcomes Research, Department of Orthopedic Surgery, Brigham and Women’s Hospital, Boston, MA, USA; University of Arizona Arthritis Center &amp; Division of Rheumatology, University of Arizona College of Medicine, Tucson, AZ, USA.; Foundation for the National Institutes of Health North Bethesda MD USA; Duke Molecular Physiology Institute and Division of Rheumatology, Department of Medicine, Duke University School of Medicine, Durham, NC 27701, USA.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3119413560</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Multivariable Modeling of Biomarker Data From the Phase I Foundation for the National Institutes of Health Osteoarthritis Biomarkers Consortium</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-05-03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Arthritis Care &amp; Research</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.24557</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/33421361</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.24557</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281649266</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>MRI-based Texture Analysis of Infrapatellar Fat Pad to Predict Knee Osteoarthritis Incidence</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Radiology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Radiological Society of North America</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1148/radiol.212009</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35638929</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1148/radiol.212009</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281606170</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Developing and validating a machine-learning algorithm to predict opioid overdose in Medicaid beneficiaries in two US states: a prognostic modelling study</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The Lancet Digital Health</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2589-7500(22)00062-0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35623798</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2589-7500(22)00062-0</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Center for Primary Care and Prevention, Pawtucket, Rhode, Island.; Department of Epidemiology, Brown University School of Public Health Providence, RI.; Radiology Department, Klinikum Nürnberg Süd, Breslauer Straße 201, 90471, Nürnberg.; Department of Radiology, Brigham &amp; Women's Hospital and Harvard Medical School, Boston, Massachusetts.; Division of Rheumatology, Allergy, and Immunology, Tufts Medical Center, Boston, Massachusetts.; Medical Care Line and Research Care Line, Houston Health Services Research and Development Center of Excellence Michael E. DeBakey VAMC, Houston, Texas. Section of Immunology, Allergy, and Rheumatology, Baylor College of Medicine, Houston, Texas.; Center for Primary Care and Prevention, Pawtucket, Rhode, Island.; Dept. of Rheumatology, Diakonhjemmet Hospital, Oslo, Norway.; Section of Clinical Sciences, Division of Rheumatology, Immunology &amp; Allergy, Brigham &amp; Women's Hospital and Harvard Medical School, Boston, Massachusetts.; Department of Epidemiology and Biostatistics, University of California San Francisco, San Francisco, CA.; Departments of Medicine and Epidemiology and Public Health, University of Maryland School of Medicine, Baltimore, MD.; Division of Endocrinology, Diabetes and Metabolism, The Ohio State University, Columbus, OH.; University of Arizona Arthritis Center, University of Arizona, Tucson, AZ.; Division of Rheumatology, Allergy, and Immunology, Tufts Medical Center, Boston, Massachusetts.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210667382</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Prevalence, Incidence, and Progression of Radiographic and Symptomatic Hand Osteoarthritis: The Osteoarthritis Initiative</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-04-23</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Arthritis &amp; Rheumatology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/art.42076</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35077023</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/art.42076</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Surgery, University of Arizona College of Medicine, Tucson; Southwestern Academic Limb Salvage Alliance (SALSA), Los Angeles, California; Department of Population Health, University of Kansas Medical Center, Kansas City; Statistics Consulting Lab, Bio5 Institute, University of Arizona, Tucson; Department of Surgery, University of Arizona College of Medicine, Tucson; Center for Border Health Disparities, University of Arizona Health Science, Tucson; Department of Medicine, University of Arizona College of Medicine, Tucson; Department of Surgery, University of Arizona College of Medicine, Tucson; Department of Surgery, Keck School of Medicine of University of Southern California, Los Angeles; Southwestern Academic Limb Salvage Alliance (SALSA), Los Angeles, California</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220928164</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Rates of Diabetes-Related Major Amputations Among Racial and Ethnic Minority Adults Following Medicaid Expansion Under the Patient Protection and Affordable Care Act</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-03-24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>JAMA network open</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>American Medical Association</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamanetworkopen.2022.3991</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35323948</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamanetworkopen.2022.3991</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Medicine, Baylor College of Medicine, Medical Care Line and Research Care Line, Houston VA HSR&amp;amp;D Center for Innovations in Quality, Effectiveness and Safety, and Michael E. DeBakey Medical Center Houston Texas; Baylor College of Medicine  Houston TX; Tufts Medical Center  Boston MA; Michigan State University  East Lansing MI; Tufts Medical Center  Boston MA; Department of Epidemiology University of Pittsburgh  Pittsburgh PA; Department of Epidemiology University of Pittsburgh  Pittsburgh PA; Department of Family Medicine, Warren Alpert Medical School of Brown University and Department of Epidemiology, School of Public Health of Brown University, Providence, Rhode Island; Department of Medicine and Epidemiology and Public Health, University of Maryland School of Medicine, Baltimore; Ohio State University  Columbus OH; University of Arizona Arthritis Center University of Arizona College of Medicine  Tucson AZ; Department of Epidemiology and Biostatistics University of California San Francisco  San Francisco CA; Tufts Medical Center  Boston MA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281979518</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Association Between Walking for Exercise and Symptomatic and Structural Progression in Individuals With Knee Osteoarthritis: Data From the Osteoarthritis Initiative Cohort</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Arthritis &amp; Rheumatology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/art.42241</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35673832</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/art.42241</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Quantitative Imaging Center, Department of Radiology, Boston University School of Medicine, 820 Harrison Avenue, FGH Building, 4th floor, Boston, MA, 02118, USA; Department of Radiology, Massachusetts General Hospital, Harvard University, Boston, USA; Orthopaedics and Arthritis Center of Outcomes Research, Brigham and Women’s Hospital, Harvard Medical, School, Boston, USA; University of Arizona Arthritis Center, The University of Arizona College of Medicine, Tucson, USA; Department of Radiology, Stony Brook University Renaissance School of Medicine, State University of New York, Stony Brook, USA; Department of Rheumatology, Royal North Shore Hospital and Institute of Bone and Joint Research, Kolling Institute, University of Sydney, St. Leonards, Australia; Department of Radiology, VA Boston Healthcare System, 1400 VFW Parkway, Suite 1B105, West Roxbury, MA, 02132, USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297229831</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Structural phenotypes of knee osteoarthritis: potential clinical and research relevance</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-09-26</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Skeletal Radiology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00256-022-04191-6</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36161341</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00256-022-04191-6</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Boston University School of Medicine, Boston, Massachusetts, and Friedrich‐Alexander University Erlangen‐Nürnberg and Universitätsklinikum Erlangen  Erlangen Germany; Boston University School of Medicine, Boston, Massachusetts, and VA Boston Healthcare System, West Roxbury  Massachusetts; (current address: Pinney Associates, Pittsburgh, Pennsylvania), (current address: The University of Tokyo, Tokyo, Japan), (current address: University of Arizona College of Medicine, Tucson), University of Pittsburgh School of Medicine, Pittsburgh, Pennsylvania; (current address: Pinney Associates, Pittsburgh, Pennsylvania), (current address: The University of Tokyo, Tokyo, Japan), (current address: University of Arizona College of Medicine, Tucson), University of Pittsburgh School of Medicine, Pittsburgh, Pennsylvania; Department of Diagnostic and Interventional Radiology, Lausanne University Hospital and University of Lausanne  Rue du Bugnon 46 1011 Lausanne Switzerland; Department of Rheumatology, Royal North Shore Hospital and Institute of Bone and Joint Research, Kolling Institute, University of Sydney, Pacific Hwy, St. Leonards, NSW, 2065, Australia.; Paracelsus Medical University Salzburg and Nuremberg  Salzburg, Austria, and Chondrometrics Ainring Germany; (current address: Pinney Associates, Pittsburgh, Pennsylvania), (current address: The University of Tokyo, Tokyo, Japan), (current address: University of Arizona College of Medicine, Tucson), University of Pittsburgh School of Medicine, Pittsburgh, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3129017335</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Presence of Magnetic Resonance Imaging–Defined Inflammation Particularly in Overweight and Obese Women Increases Risk of Radiographic Knee Osteoarthritis: The POMA Study</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-05-11</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Arthritis Care &amp; Research</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.24568</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/33527736</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.24568</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Department of Epidemiology, Graduate School of Public Health, University of Pittsburgh , Pittsburgh, Pennsylvania , USA; VA Boston Healthcare System , Boston, MA , USA; Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, PA.; Department of Medicine, Northwestern University, Chicago, IL.; Department of Medicine, University of Arizona, Tucson, AZ.; Department of Physical Therapy, University of Pittsburgh, Pittsburgh, PA.; Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, PA.; Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, PA.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213094625</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>The Association Between Severity of Radiographic Knee OA and Recurrent Falls in Middle and Older Aged Adults: The Osteoarthritis Initiative</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-02-20</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>The Journals of Gerontology: Series A</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/gerona/glac050</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>public-domain</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35184161</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/gerona/glac050</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Center for Drug Evaluation and Safety (CoDES), College of Pharmacy, University of Florida, Gainesville, FL, USA.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, USA.; Center for Drug Evaluation and Safety (CoDES), College of Pharmacy, University of Florida, Gainesville, FL, USA.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, USA.; Agricultural Information Institute, Chinese Academy of Agricultural Sciences, Beijing, China.; Key Laboratory of Agricultural Big Data, Ministry of Agriculture and Rural Affairs, Beijing, China.; Department of Management Information Systems, University of Arizona, Tucson, AZ, USA.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, USA.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, USA.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, USA.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, USA.; Department of Pharmacy Practice and Science, College of Pharmacy, University of Arizona, Tucson, AZ, USA.; Divisions of Addiction Medicine &amp; Forensic Psychiatry, Departments of Psychiatry &amp; Anesthesiology, College of Medicine, University of Florida, Gainesville, Florida, USA.; Division of Rheumatology, College of Medicine, University of Arizona, Tucson, Arizona, USA.; Pharmacy Practice &amp; Science, Institute for Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Kentucky, Lexington, KY, USA.; Department of Pharmacotherapy &amp; Translational Research, College of Pharmacy, University of Florida, Gainesville, FL, USA.; Department of Pharmacy Practice and Science, College of Pharmacy, University of Arizona, Tucson, AZ, USA.; North Florida/South Georgia Veterans Health System Geriatric Research Education and Clinical Center, Gainesville, FL.; Center for Drug Evaluation and Safety (CoDES), College of Pharmacy, University of Florida, Gainesville, FL, USA.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, USA.; School of Pharmacy, University of Washington, Seattle, WA, USA.; Department of Health Outcomes and Biomedical Informatics, College of Medicine, University of Florida, Gainesville, FL, USA.; Center for Drug Evaluation and Safety (CoDES), College of Pharmacy, University of Florida, Gainesville, FL, USA.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, USA.; Center for Drug Evaluation and Safety (CoDES), College of Pharmacy, University of Florida, Gainesville, FL, USA.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, USA.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, USA.; Health Science Center Libraries, University of Florida, Gainesville, FL, USA.; Center for Health Equity Research Promotion, Veterans Affairs Pittsburgh Healthcare System, Pittsburgh, PA, USA.; Center for Pharmaceutical Policy and Prescribing, Health Policy Institute, University of Pittsburgh, Pittsburgh, PA, USA.; Department of Medicine, School of Medicine, University of Pittsburgh, Pittsburgh, PA, USA.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4214498113</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Dosing profiles of concurrent opioid and benzodiazepine use associated with overdose risk among US Medicare beneficiaries: group‐based multi‐trajectory models</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-04-19</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Addiction</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/add.15857</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35224799</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/add.15857</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, USA; VA Boston Healthcare System, Boston, USA; Research Institute, California Pacific Medical Center, San Francisco, USA; Research Institute, California Pacific Medical Center, San Francisco, USA; Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, USA; Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, USA; Department of Physical Therapy, University of Pittsburgh, Pittsburgh, USA; Department of Medicine, University of Arizona, Tucson, USA; Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, USA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226277820</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Associations of components of sarcopenia with risk of fracture in the Osteoporotic Fractures in Men (MrOS) study</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-04-05</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Osteoporosis International</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00198-022-06390-2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35380213</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00198-022-06390-2</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Case Western Reserve University, Frances Payne Bolton School of Nursing; Louis Stokes VA Medical Center, Geriatric Research Education and Clinical Center; Case Western Reserve University, Frances Payne Bolton School of Nursing; Case Western Reserve University, Department of Sociology; Louis Stokes VA Medical Center, Geriatric Research Education and Clinical Center; University Hospitals of Cleveland; Case Western Reserve University, Department of Sociology; Case Western Reserve University, Frances Payne Bolton School of Nursing; University of Arizona Arthritis Center, University of Arizona, Tucson, AZ; Northwell Health</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220986812</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>The Effects of Osteoarthritis on Depressive Symptomatology Among Older U.S. Military Veterans</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-03-14</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>The International Journal of Aging and Human Development</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/00914150221084952</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35285279</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/00914150221084952</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Norwich Medical School, University of East Anglia, Norwich, UK, and University of Cambridge School of Clinical Medicine, Cambridge, UK; Boston University School of Medicine, Boston, Massachusetts, and VA Boston Healthcare System, West Roxbury, Massachusetts; University of Arizona College of Medicine, Tucson; Boston University School of Medicine, Boston, Massachusetts, and Khoo Teck Puat Hospital, Singapore, Singapore; Massachusetts General Hospital and Harvard Medical School, Boston; Pfizer, New York, New York; University of Pittsburgh School of Medicine, and Pinney Associates, Pittsburgh, Pennsylvania; The University of Tokyo Hospital, Tokyo, Japan; Boston University School of Medicine, Boston, Massachusetts, and Friedrich‐Alexander University Erlangen‐Nürnberg &amp;amp; Universitätsklinikum Erlangen  Erlangen Germany</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3139186322</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Magnetic Resonance Imaging–Defined Osteophyte Presence and Concomitant Cartilage Damage in Knees With Incident Tibiofemoral Osteoarthritis: Data From the Pivotal Osteoarthritis Initiative Magnetic Resonance Imaging Analyses Study</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-06-18</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Arthritis Care &amp; Research</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.24605</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/33770420</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.24605</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223480617</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Tanezumab for the treatment of osteoarthritis pain</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Drugs of Today</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Prous Science</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1358/dot.2022.58.4.3352752</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35412532</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1358/dot.2022.58.4.3352752</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Center for Drug Evaluation and Safety (CoDES), College of Pharmacy, University of Florida, Gainesville, FL, US.; Center for Pharmaceutical Policy and Prescribing, University of Pittsburgh, Pittsburgh, PA, US.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, US.; Center for Health Equity Research Promotion, Veterans Affairs Pittsburgh Healthcare System, Pittsburgh, PA, US.; Center for Pharmaceutical Policy and Prescribing, University of Pittsburgh, Pittsburgh, PA, US.; Center for Pharmaceutical Policy and Prescribing, University of Pittsburgh, Pittsburgh, PA, US.; Carnegie Mellon University, Heinz College, Pittsburgh, PA, US.; Department of Health Policy and Management, University of Pittsburgh, Pittsburgh, PA, US.; Program for Addiction Research, Clinical Care, Knowledge, and Advocacy, Division of Epidemiology, Department of Internal Medicine, University of Utah, Salt Lake City, UT, US.; Informatics, Decision-Enhancement, and Analytic Sciences Center, Veterans Affairs Salt Lake City Health Care System, Salt Lake City, UT, US.; Program for Addiction Research, Clinical Care, Knowledge, and Advocacy, Division of Epidemiology, Department of Internal Medicine, University of Utah, Salt Lake City, UT, US.; Department of Pharmacotherapy, College of Pharmacy, University of Utah, Salt Lake City, UT, US.; Division of Rheumatology, Department of Medicine, and the University of Arizona Arthritis Center, University of Arizona, Tucson, Arizona, USA.; Center for Pharmaceutical Policy and Prescribing, University of Pittsburgh, Pittsburgh, PA, US.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, US.; Center for Drug Evaluation and Safety (CoDES), College of Pharmacy, University of Florida, Gainesville, FL, US.; Department of Pharmaceutical Outcomes &amp; Policy, College of Pharmacy, University of Florida, Gainesville, FL, US.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220835253</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Changes in predicted opioid overdose risk over time in a state Medicaid program: a group‐based trajectory modeling analysis</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-04-03</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Addiction</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/add.15878</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35315173</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/add.15878</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,75 +1757,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Utah, Salt Lake City; Department of Medicine, University of Utah, Salt Lake City; George E. Wahlen Department of Veterans Affairs Medical Center, Salt Lake City, Utah; Edward Hines Junior VA Hospital Cooperative Studies Program Coordinating Center, Hines, Illinois; School of Pharmacy, University of New Mexico, Albuquerque, New Mexico; VA Cooperative Studies Program, Clinical Research Pharmacy Coordinating Center, Albuquerque, New Mexico; Edward Hines Junior VA Hospital Cooperative Studies Program Coordinating Center, Hines, Illinois; Edward Hines Junior VA Hospital Cooperative Studies Program Coordinating Center, Hines, Illinois; Edward Hines Junior VA Hospital Cooperative Studies Program Coordinating Center, Hines, Illinois; Department of Medicine, University of Utah, Salt Lake City; George E. Wahlen Department of Veterans Affairs Medical Center, Salt Lake City, Utah; National Institutes of Health/National Institute on Aging, Laboratory of Clinical Investigation, Baltimore, Maryland; University of Arizona Arthritis Center, University of Arizona, Tucson; VA San Diego Healthcare System, San Diego, California; Department of Medicine, San Diego VA Medical Center, San Diego, California; Edward Hines Junior VA Hospital Cooperative Studies Program Coordinating Center, Hines, Illinois; VA Cooperative Studies Program, Clinical Research Pharmacy Coordinating Center, Albuquerque, New Mexico; Department of Electrical &amp; Computer Engineering, Brigham Young University, Provo, Utah; Department of Bioengineering, Imperial College London, London, United Kingdom; Department of Radiology, University of Utah, Salt Lake City; George E. Wahlen Department of Veterans Affairs Medical Center, Salt Lake City, Utah; Department of Medicine, University of Utah, Salt Lake City; George E. Wahlen Department of Veterans Affairs Medical Center, Salt Lake City, Utah</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221093466</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Effect of Pulsed Low-Intensity Ultrasonography on Symptom Relief and Tibiofemoral Articular Cartilage Thickness Among Veterans Affairs Enrollees With Knee Osteoarthritis</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-03-08</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>JAMA network open</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>American Medical Association</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamanetworkopen.2022.0632</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35258579</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamanetworkopen.2022.0632</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,75 +1844,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Department of Medicine, Baylor College of Medicine, 1 Baylor Plaza, BCM-285, Houston, TX, 77030, USA. ghlo@bcm.edu.; Medical Care Line and Research Care Line, Michael E. DeBakey Medical Center, Houston VA HSR&amp;D Center for Innovations in Quality, Effectiveness and Safety, Houston, TX, USA. ghlo@bcm.edu.; Division of Rheumatology, Allergy and Immunology, Tufts Medical Center, Boston, USA; Department of Epidemiology, School of Public Health, University of Pittsburgh, Pittsburgh, USA; Division of Rheumatology, Allergy and Immunology, Tufts Medical Center, Boston, USA; Department of Medicine, Baylor College of Medicine, Houston, USA; Department of Radiology, University of Cambridge, Cambridge, UK; Department of Kinesiology, Michigan State University, East Lansing, USA; Division of Rheumatology, Allergy and Immunology, Tufts Medical Center, Boston, USA; Department of Medicine, University of Pittsburgh, Pittsburgh, USA; Department of Medicine, University of Pittsburgh, Pittsburgh, USA; Department of Medicine, Baylor College of Medicine, Houston, USA; Medical Care Line and Research Care Line, Michael E. DeBakey Medical Center, Houston VA HSR&amp;D Center for Innovations in Quality, Effectiveness and Safety, Houston, USA; University of Arizona Arthritis Center , University of Arizona College of Medicine - Tucson, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224312563</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>A novel approach to studying early knee osteoarthritis illustrates that bilateral medial tibiofemoral osteoarthritis is a heritable phenotype: an offspring study</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-04-23</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Rheumatology International</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00296-022-05116-1</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35460352</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00296-022-05116-1</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,75 +1931,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Department of Radiology, Massachusetts General Hospital, Harvard Medical School, YAW 6044, Boston, MA, 02114, USA. mjarraya@mgh.harvard.edu.; Department of Radiology, Boston University School of Medicine, Boston, MA, USA; Division of Rheumatology, The University of Arizona, Tucson, USA; Department of Radiology, Boston University School of Medicine, Boston, MA, USA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312019079</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Crystal arthropathies and osteoarthritis—where is the link?</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-12-20</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Skeletal Radiology</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00256-022-04246-8</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36538066</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00256-022-04246-8</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,75 +2018,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t xml:space="preserve">Division of Rheumatology Brigham and Women’s Hospital  Boston MA; Division of Rheumatology Rush University Medical Center  Chicago IL; Division of Rheumatology Brigham and Women’s Hospital  Boston MA; Division of Rheumatology Brigham and Women’s Hospital  Boston MA; Division of Rheumatology Brigham and Women’s Hospital  Boston MA; Division of Rheumatology Brigham and Women’s Hospital  Boston MA; Division of Rheumatology Brigham and Women’s Hospital  Boston MA; Division of Rheumatology University of Vienna  Vienna Austria; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Brigham and Women's Hospital, Boston, Massachusetts; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Brigham and Women's Hospital, Boston, Massachusetts; </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206077688</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Implementing a &lt;scp&gt;Treat‐to‐Target&lt;/scp&gt; Approach for Rheumatoid Arthritis During the &lt;scp&gt;COVID&lt;/scp&gt; ‐19 Pandemic: Results of a Virtual Learning Collaborative Program</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-02-04</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Arthritis Care &amp; Research</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.24830</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35119779</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.24830</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2005,75 +2105,80 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Massachusetts Gen. Hosp., Boston, MA; Friedrich Alexander Univ. Erlangen-Nürnberg (FAU) &amp; Univ.sklinikum Erlangen, Erlangen, Germany; Univ. of Arizona, Tuscon, AZ; UCSF, San Francisco, CA; Univ. of Arizona, Tuscon, AZ; Boston Univ. Sch. of Med., Boston, MA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220667992</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>ADDRESSING POTENTIAL SAFETY SIGNALS AND POTENTIAL NON-RESPONSE IN KNEE OSTEOARTHRITIS CLINICAL TRIALS: PREVALENCE OF MRI-BASED EXCLUSIONARY FINDINGS BASED ON DATA FROM THE OSTEOARTHRITIS INITIATIVE (OAI)</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Osteoarthritis and Cartilage</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.joca.2022.02.138</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.joca.2022.02.138</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2087,75 +2192,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Univ. of Arizona, Tucson, AZ; Univ. of Arizona, Tucson, AZ; Univ. of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220702278</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>RACIAL AND ETHNIC DIFFERENCES IN THE MEDICAL MANAGEMENT OF OSTEOARTHRITIS: A SYSTEMATIC REVIEW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Osteoarthritis and Cartilage</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.joca.2022.02.523</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.joca.2022.02.523</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2169,75 +2279,80 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Section of Rheumatology, Lewis Katz School of Medicine, Temple University, 201 MOB, 3322 N. Broad Street, Philadelphia, PA 19140, USA.; Section of Rheumatology, Lewis Katz School of Medicine, Temple University, Philadelphia, PA, USA.; Section of Rheumatology, Lewis Katz School of Medicine, Temple University, Philadelphia, PA, USA.; Section of Rheumatology, Lewis Katz School of Medicine, Temple University, Philadelphia, PA, USA.; Health Sciences Library, Temple University, Philadelphia, PA, USA.; The University of Arizona Arthritis Center and Division of Rheumatology, College of Medicine, University of Arizona, Tucson, AZ, USA.; The University of Arizona Arthritis Center and Division of Rheumatology, College of Medicine, University of Arizona, Tucson, AZ, USA.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285202002</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Racial and ethnic differences in the pharmacologic management of osteoarthritis: rapid systematic review</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Therapeutic Advances in Musculoskeletal Disease</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/1759720x221105011</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35794906</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/1759720x221105011</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2251,75 +2366,80 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Departments of Biomedical Engineering, Cleveland Clinic, Cleveland, OH, USA; Departments of Biomedical Engineering, Cleveland Clinic, Cleveland, USA; Departments of Biomedical Engineering, Cleveland Clinic, Cleveland, USA; Departments of Biomedical Engineering, Cleveland Clinic, Cleveland, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, USA; Physical Medicine and Rehabilitation, Cleveland Clinic, Cleveland, USA; Department of Orthopaedic Surgery, Cleveland Clinic, Cleveland, USA; Department of Orthopaedic Surgery, Cleveland Clinic, Cleveland, USA; Arthritis Center, University of Arizona, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308730733</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>A preliminary study of radioulnar wrist compression in improving patient-reported outcomes of carpal tunnel syndrome</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-11-09</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>BMC Musculoskeletal Disorders</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>BioMed Central</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12891-022-05943-0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36352375</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12891-022-05943-0</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2333,75 +2453,80 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Brigham and Women's Hospital and Harvard Medical School, Boston, Massachusetts, and Diakonhjemmet Hospital and University of Oslo  Oslo Norway; University of Arizona Arthritis Center University of Arizona College of Medicine  Tucson AZ USA; Brigham and Women's Hospital / Harvard Medical School Boston MA USA; Department of Epidemiology and Biostatistics Mel and Enid Zuckerman College of Public Health, University of Arizona  Tucson AZ, USA; University of Arizona Arthritis Center University of Arizona College of Medicine  Tucson AZ USA; Brigham and Women's Hospital / Harvard Medical School Boston MA USA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3180123078</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Cartilage Topography Assessment With &lt;scp&gt;Local‐Area&lt;/scp&gt; Cartilage Segmentation for Knee Magnetic Resonance Imaging</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-09-06</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Arthritis Care &amp; Research</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.24745</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34219396</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.24745</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2415,75 +2540,80 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Novartis Ireland Limited, Dublin, Ireland; Tufts Med. Ctr., Boston, MA; Tufts Med. Ctr., Boston, MA; Nancy Univ. Hosp., Nancy, France; Boston Univ. Sch. of Med., Boston, MA; Univ. of Arizona, Tucson, AZ; State Res. Inst. Ctr. for Innovative Med., Vilnius, Lithuania; Univ. Med. Ctr. Utrecht, Utrecht, Netherlands; Univ. of Oulu, Oulu, Finland; Univ. of California, San Francisco, CA; Arthritis Res. Inst., Leeds, United Kingdom; Univ. of California Davis Sch. of Med., California, CA; Harvard Med. Sch., Boston, MA; Univ. of Sydney, Sydney, Australia; Novartis Pharma AG, Basel, Switzerland; Novartis Pharma AG, Basel, Switzerland</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221074898</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>NOVEL COMPOSITE ENDPOINT FOR SEVERE KNEE OSTEOARTHRITIS STATUS</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Osteoarthritis and Cartilage</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.joca.2022.02.267</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.joca.2022.02.267</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2497,75 +2627,80 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Baylor Coll. of Med., Houston, TX; Tufts Med. Ctr., Boston, MA; Tufts Med. Ctr., Boston, MA; Univ. of Pittsburgh, Pittsburgh, PA; Univ. of Pittsburgh, Pittsburgh, PA; Mem. Hosp. of Rhode Island, Pawtucket, RI; Univ. of Maryland, Baltimore, MD; Ohio State Univ., Columbus, OH; Univ. of Arizona, Tucson, AZ; UCSF, San Francisco, CA; Tufts Med. Ctr., Boston, MA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221089615</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>GARDENING/YARDWORK IS NOT ASSOCIATED WITH NEW KNEE PAIN OR DISEASE PROGRESSION OVER 48 MONTHS IN THOSE WITH KNEE OSTEOARTHRITIS: DATA FROM THE OSTEOARTHRITIS INITIATIVE</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Osteoarthritis and Cartilage</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.joca.2022.02.300</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.joca.2022.02.300</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2579,75 +2714,80 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Deprtment of Epidemiology nd Biosttistics, University of Arizon, AZ, USA; Department of Radiology, Boston University Shool of Mediine, MA, USA; Department of Radiology, University of Erlangen – Nuremerg, Erlangen, Germany;  University of Arizona;; Deprtment of Epidemiology nd Biosttistics, University of Arizon, AZ, USA;  University of Arizona;;  Boston University;  University of Arizona;; Deprtment of Epidemiology nd Biosttistics, University of Arizon, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4295872715</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Comparison of Evaluation Metrics of Deep Learning for Imbalanced Imaging Data in Osteoarthritis Studies</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-09-09</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.09.08.22279696</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.09.08.22279696</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2661,75 +2801,80 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Department of Epidemiology, Graduate School of Public Health, University of Pittsburgh, Pittsburgh, PA, USA; Research Institute, California Pacific Medical Center, San Francisco, USA; Research Institute, California Pacific Medical Center, San Francisco, USA; Department of Epidemiology, Graduate School of Public Health, University of Pittsburgh, Pittsburgh, USA; Department of Epidemiology, Graduate School of Public Health, University of Pittsburgh, Pittsburgh, USA; Department of Physical Therapy, University of Pittsburgh, Pittsburgh, USA; Department of Medicine, University of Arizona, Tucson, USA; Department of Epidemiology, Graduate School of Public Health, University of Pittsburgh, Pittsburgh, USA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310700485</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Response letter to “sarcopenia, osteoporosis and fractures: what we see”</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022-12-05</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Osteoporosis International</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00198-022-06620-7</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36469084</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00198-022-06620-7</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/C Kent Kwoh_2022.xlsx
+++ b/DOM_Banner/output/dept0713/C Kent Kwoh_2022.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Clinical Research Centre, Zhujiang Hospital, Southern                     Medical University, Guangzhou, Guangdong, China; Department of Orthopedics, Nanfang Hospital, Southern Medical                     University, Guangzhou, Guangdong, China; School of Biomedical                     Engineering, Southern Medical University, Guangzhou, China; Department of Rehabilitation Medicine, Zhujiang Hospital, Southern Medical                     University, Guangzhou, China; Clinical Research Centre, Zhujiang Hospital, Southern                     Medical University, Guangzhou, Guangdong, China; School of Biomedical                     Engineering, Southern Medical University, Guangzhou, China; Clinical Research Centre, Zhujiang Hospital, Southern                     Medical University, Guangzhou, Guangdong, China; Department of Radiology, Zhujiang                     Hospital, Southern Medical University, Guangzhou, China; Clinical Research Centre, Zhujiang Hospital, Southern                     Medical University, Guangzhou, Guangdong, China; Department of                     Orthopedics, The Third Affiliated Hospital of Southern Medical University,                     Guangzhou, China; Clinical Research Centre, Zhujiang Hospital, Southern                     Medical University, Guangzhou, Guangdong, China; Department of Biomedical Engineering, Lerner Research                     Institute, Cleveland Clinic, Cleveland, Ohio; University of Arizona                     College of Medicine, Tucson, Ariz; University of Pittsburgh Graduate                     School of Public Health, Pittsburgh, Pa; Department of Radiology, VA                     Boston Healthcare System, Boston University School of Medicine, Boston, Mass; Department of Radiology, University of Erlangen-Nuremberg,                     Erlangen, Germany; Department of Radiology, VA                     Boston Healthcare System, Boston University School of Medicine, Boston, Mass; Clinical Research Centre, Zhujiang Hospital, Southern                     Medical University, Guangzhou, Guangdong, China; Department of Rheumatology, Royal North Shore                     Hospital and Sydney Musculoskeletal Health, Kolling Institute, University of                     Sydney, Australia; School of Biomedical                     Engineering, Southern Medical University, Guangzhou, China; Clinical Research Centre, Zhujiang Hospital, Southern                     Medical University, Guangzhou, Guangdong, China; Menzies Institute for Medical Research,                     University of Tasmania, Hobart, Australia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Boston University School of Medicine, Boston, Massachusetts, and Friedrich‐Alexander University Erlangen‐Nürnberg and Universitätsklinikum Erlangen  Erlangen Germany; Boston University School of Medicine, Boston, Massachusetts, and VA Boston Healthcare System, West Roxbury  Massachusetts; (current address: Pinney Associates, Pittsburgh, Pennsylvania), (current address: The University of Tokyo, Tokyo, Japan), (current address: University of Arizona College of Medicine, Tucson), University of Pittsburgh School of Medicine, Pittsburgh, Pennsylvania; (current address: Pinney Associates, Pittsburgh, Pennsylvania), (current address: The University of Tokyo, Tokyo, Japan), (current address: University of Arizona College of Medicine, Tucson), University of Pittsburgh School of Medicine, Pittsburgh, Pennsylvania; Department of Diagnostic and Interventional Radiology, Lausanne University Hospital and University of Lausanne  Rue du Bugnon 46 1011 Lausanne Switzerland; Department of Rheumatology, Royal North Shore Hospital and Institute of Bone and Joint Research, Kolling Institute, University of Sydney, Pacific Hwy, St. Leonards, NSW, 2065, Australia.; Paracelsus Medical University Salzburg and Nuremberg  Salzburg, Austria, and Chondrometrics Ainring Germany; (current address: Pinney Associates, Pittsburgh, Pennsylvania), (current address: The University of Tokyo, Tokyo, Japan), (current address: University of Arizona College of Medicine, Tucson), University of Pittsburgh School of Medicine, Pittsburgh, Pennsylvania</t>
+          <t>Boston University School of Medicine, Boston, Massachusetts, and Friedrich‐Alexander University Erlangen‐Nürnberg and Universitätsklinikum Erlangen  Erlangen Germany; Boston University School of Medicine, Boston, Massachusetts, and VA Boston Healthcare System, West Roxbury  Massachusetts; (current address: Pinney Associates, Pittsburgh, Pennsylvania), (current address: The University of Tokyo, Tokyo, Japan), (current address: University of Arizona College of Medicine, Tucson), University of Pittsburgh School of Medicine, Pittsburgh, Pennsylvania; (current address: Pinney Associates, Pittsburgh, Pennsylvania), (current address: The University of Tokyo, Tokyo, Japan), (current address: University of Arizona College of Medicine, Tucson), University of Pittsburgh School of Medicine, Pittsburgh, Pennsylvania; Department of Diagnostic and Interventional Radiology, Lausanne University Hospital and University of Lausanne  Rue du Bugnon 46 1011 Lausanne Switzerland; Department of Rheumatology, Royal North Shore Hospital and Institute of Bone and Joint Research, Kolling Institute, University of Sydney, Pacific Hwy, St. Leonards, NSW, 2065, Australia.; Paracelsus Medical University Salzburg and Nuremberg, Salzburg, Austria, and Chondrometrics, Ainring, Germany; (current address: Pinney Associates, Pittsburgh, Pennsylvania), (current address: The University of Tokyo, Tokyo, Japan), (current address: University of Arizona College of Medicine, Tucson), University of Pittsburgh School of Medicine, Pittsburgh, Pennsylvania</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1317,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rebekah Harris, Neeta Parimi, Peggy M. Cawthon, Elsa S. Strotmeyer, Robert M. Boudreau, Jennifer S. Brach, C. Kent Kwoh, Jane A. Cauley</t>
+          <t>Christopher J. Burant, Gregory Graham, Gary T. Deimling, Denise Kresevic, Eva Kahana, May L. Wykle, C. Kent Kwoh, Said A. Ibrahim</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, USA; VA Boston Healthcare System, Boston, USA; Research Institute, California Pacific Medical Center, San Francisco, USA; Research Institute, California Pacific Medical Center, San Francisco, USA; Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, USA; Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, USA; Department of Physical Therapy, University of Pittsburgh, Pittsburgh, USA; Department of Medicine, University of Arizona, Tucson, USA; Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, USA</t>
+          <t>Case Western Reserve University, Frances Payne Bolton School of Nursing; Louis Stokes VA Medical Center, Geriatric Research Education and Clinical Center; Case Western Reserve University, Frances Payne Bolton School of Nursing; Case Western Reserve University, Department of Sociology; Louis Stokes VA Medical Center, Geriatric Research Education and Clinical Center; University Hospitals of Cleveland; Case Western Reserve University, Department of Sociology; Case Western Reserve University, Frances Payne Bolton School of Nursing; University of Arizona Arthritis Center, University of Arizona, Tucson, AZ; Northwell Health</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4226277820</t>
+          <t>https://openalex.org/W4220986812</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Associations of components of sarcopenia with risk of fracture in the Osteoporotic Fractures in Men (MrOS) study</t>
+          <t>The Effects of Osteoarthritis on Depressive Symptomatology Among Older U.S. Military Veterans</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Osteoporosis International</t>
+          <t>The International Journal of Aging and Human Development</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s00198-022-06390-2</t>
+          <t>https://doi.org/10.1177/00914150221084952</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35380213</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35285279</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s00198-022-06390-2</t>
+          <t>https://doi.org/10.1177/00914150221084952</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,42 +1404,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Christopher J. Burant, Gregory Graham, Gary T. Deimling, Denise Kresevic, Eva Kahana, May L. Wykle, C. Kent Kwoh, Said A. Ibrahim</t>
+          <t>Rebekah Harris, Neeta Parimi, Peggy M. Cawthon, Elsa S. Strotmeyer, Robert M. Boudreau, Jennifer S. Brach, C. Kent Kwoh, Jane A. Cauley</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Case Western Reserve University, Frances Payne Bolton School of Nursing; Louis Stokes VA Medical Center, Geriatric Research Education and Clinical Center; Case Western Reserve University, Frances Payne Bolton School of Nursing; Case Western Reserve University, Department of Sociology; Louis Stokes VA Medical Center, Geriatric Research Education and Clinical Center; University Hospitals of Cleveland; Case Western Reserve University, Department of Sociology; Case Western Reserve University, Frances Payne Bolton School of Nursing; University of Arizona Arthritis Center, University of Arizona, Tucson, AZ; Northwell Health</t>
+          <t>Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, USA; VA Boston Healthcare System, Boston, USA; Research Institute, California Pacific Medical Center, San Francisco, USA; Research Institute, California Pacific Medical Center, San Francisco, USA; Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, USA; Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, USA; Department of Physical Therapy, University of Pittsburgh, Pittsburgh, USA; Department of Medicine, University of Arizona, Tucson, USA; Department of Epidemiology Graduate School of Public Health University of Pittsburgh, Pittsburgh, USA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4220986812</t>
+          <t>https://openalex.org/W4226277820</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The Effects of Osteoarthritis on Depressive Symptomatology Among Older U.S. Military Veterans</t>
+          <t>Associations of components of sarcopenia with risk of fracture in the Osteoporotic Fractures in Men (MrOS) study</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>The International Journal of Aging and Human Development</t>
+          <t>Osteoporosis International</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/00914150221084952</t>
+          <t>https://doi.org/10.1007/s00198-022-06390-2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35285279</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35380213</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/00914150221084952</t>
+          <t>https://doi.org/10.1007/s00198-022-06390-2</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
